--- a/Bases/Regiones.xlsx
+++ b/Bases/Regiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvill\OneDrive\Escritorio\IM_Regiones\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED4BE8E-3498-4EC6-AF55-E269B36E4F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E0926-6279-487D-9641-D2472E862DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{744A8029-B291-4F26-8F78-29C5ADCB6F66}"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{744A8029-B291-4F26-8F78-29C5ADCB6F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
-  <si>
-    <t>Regiones</t>
-  </si>
-  <si>
-    <t>Estados</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Centro</t>
   </si>
@@ -524,276 +518,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2C82F-5627-4086-8A6E-039254953A47}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
